--- a/docs/efforts/Dustin Bramos.xlsx
+++ b/docs/efforts/Dustin Bramos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npatel/Dropbox/Oakland/Teaching/CSI4999/Winter2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - oakland.edu\CSI 4999 - Senior Capstone Project\Project\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE7BE32-866E-C949-94F1-81AD2D7E19C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{AFE7BE32-866E-C949-94F1-81AD2D7E19C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56E18568-7408-44E9-9A1E-70B646AAE94C}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="3200" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,17 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
   <si>
-    <t>Wrote usecases UC1, UC2. Developed practice and proceedure for effectively using GIT</t>
-  </si>
-  <si>
-    <t>You must provide accurate artifacts created by you. For example</t>
-  </si>
-  <si>
     <t>Artifact Name</t>
   </si>
   <si>
@@ -52,69 +46,6 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>Pages 11, 12</t>
-  </si>
-  <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
-    <t>Design.doc</t>
-  </si>
-  <si>
-    <t>Page 3,4</t>
-  </si>
-  <si>
-    <t>Powerpoint</t>
-  </si>
-  <si>
-    <t>Sprint2.ppt</t>
-  </si>
-  <si>
-    <t>Slide 4 to 6</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Someclass.java</t>
-  </si>
-  <si>
-    <t>New code(20), Updated(3)</t>
-  </si>
-  <si>
-    <t>Project plan</t>
-  </si>
-  <si>
-    <t>plan.prj</t>
-  </si>
-  <si>
-    <t>task 1 to 5</t>
-  </si>
-  <si>
-    <t>Defect</t>
-  </si>
-  <si>
-    <t>Bugzilla</t>
-  </si>
-  <si>
-    <t>Bug ID - 1, 3, 7</t>
-  </si>
-  <si>
-    <t>testcase.java</t>
-  </si>
-  <si>
-    <t>Unit test</t>
-  </si>
-  <si>
-    <t>New code(23), Updated(1)</t>
-  </si>
-  <si>
-    <t>Test data</t>
-  </si>
-  <si>
-    <t>New test data (5)</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -133,9 +64,6 @@
     <t>Objectives</t>
   </si>
   <si>
-    <t>Example Template</t>
-  </si>
-  <si>
     <t>Your Name</t>
   </si>
   <si>
@@ -145,36 +73,6 @@
     <t>Sprint#</t>
   </si>
   <si>
-    <t>Research Report</t>
-  </si>
-  <si>
-    <t>Report.doc</t>
-  </si>
-  <si>
-    <t>page 1 to 20</t>
-  </si>
-  <si>
-    <t>Project Setup</t>
-  </si>
-  <si>
-    <t>Joining Team.doc</t>
-  </si>
-  <si>
-    <t>page 1 - 10</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>build scripts..</t>
-  </si>
-  <si>
-    <t>Speciifcs of the script and purpose</t>
-  </si>
-  <si>
-    <t>Requirements.doc</t>
-  </si>
-  <si>
     <t>Sprint # 1</t>
   </si>
   <si>
@@ -220,7 +118,19 @@
     <t>6[IT]</t>
   </si>
   <si>
-    <t>6[CS, IT]</t>
+    <t>Golf Player Time Management</t>
+  </si>
+  <si>
+    <t>Dustin Bramos</t>
+  </si>
+  <si>
+    <t>Researched and wrote the server setup requirement.</t>
+  </si>
+  <si>
+    <t>Sprint 1.docx and Sprint 1.pptx</t>
+  </si>
+  <si>
+    <t>Page 2 on document and slide 8 on powerpoint</t>
   </si>
 </sst>
 </file>
@@ -378,21 +288,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,6 +314,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -423,24 +341,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -452,6 +352,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,293 +651,236 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.296875" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25">
+        <v>16</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="7">
+      <c r="G4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -1036,11 +894,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1054,219 +907,219 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9">
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="I5" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+    </row>
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/efforts/Dustin Bramos.xlsx
+++ b/docs/efforts/Dustin Bramos.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10907"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - oakland.edu\CSI 4999 - Senior Capstone Project\Project\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{AFE7BE32-866E-C949-94F1-81AD2D7E19C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56E18568-7408-44E9-9A1E-70B646AAE94C}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{AFE7BE32-866E-C949-94F1-81AD2D7E19C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49A75A94-7EC6-F840-B12B-5CE48C3DFF70}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
     <sheet name="Count" sheetId="25" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,9 +61,6 @@
     <t>Team Member</t>
   </si>
   <si>
-    <t>Joe, Smith</t>
-  </si>
-  <si>
     <t>Towards objectives</t>
   </si>
   <si>
@@ -65,9 +71,6 @@
   </si>
   <si>
     <t>Your Name</t>
-  </si>
-  <si>
-    <t>John Doe</t>
   </si>
   <si>
     <t>Sprint#</t>
@@ -314,6 +317,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,18 +359,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -352,21 +370,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,60 +653,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="42.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="17.296875" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="1" max="1" width="8.75390625" customWidth="1"/>
+    <col min="2" max="2" width="17.5078125" customWidth="1"/>
+    <col min="3" max="3" width="13.6875" customWidth="1"/>
+    <col min="4" max="4" width="27.49609375" customWidth="1"/>
+    <col min="5" max="5" width="42.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.53515625" customWidth="1"/>
+    <col min="7" max="7" width="17.26171875" customWidth="1"/>
+    <col min="8" max="8" width="27.9921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -718,169 +721,164 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="11">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -894,6 +892,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -903,65 +906,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="8.75390625" customWidth="1"/>
+    <col min="2" max="2" width="17.5078125" customWidth="1"/>
+    <col min="3" max="3" width="8.5078125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" customWidth="1"/>
+    <col min="5" max="5" width="8.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -982,18 +985,18 @@
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8">
         <v>2</v>
@@ -1017,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -1030,7 +1033,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -1043,7 +1046,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>3</v>
       </c>
@@ -1056,7 +1059,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -1069,7 +1072,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -1082,7 +1085,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -1095,7 +1098,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>7</v>
       </c>
@@ -1108,7 +1111,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>8</v>
       </c>

--- a/docs/efforts/Dustin Bramos.xlsx
+++ b/docs/efforts/Dustin Bramos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - oakland.edu\CSI 4999 - Senior Capstone Project\Project\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{AFE7BE32-866E-C949-94F1-81AD2D7E19C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49A75A94-7EC6-F840-B12B-5CE48C3DFF70}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{AFE7BE32-866E-C949-94F1-81AD2D7E19C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14462377-9CE0-4F96-B7D8-4C379EEDBBD0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2652" yWindow="4248" windowWidth="18432" windowHeight="9768" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -112,9 +111,6 @@
     <t>Sprint # 12</t>
   </si>
   <si>
-    <t>Example Project</t>
-  </si>
-  <si>
     <t>6[CS]</t>
   </si>
   <si>
@@ -134,6 +130,21 @@
   </si>
   <si>
     <t>Page 2 on document and slide 8 on powerpoint</t>
+  </si>
+  <si>
+    <t>Helped set up the server environment and designed the database ERD with the team. Set up the ERD portion of the powerpoint presentation.</t>
+  </si>
+  <si>
+    <t>GPTMS_ERD.mwb and Sprint 2.pptx</t>
+  </si>
+  <si>
+    <t>GPTMS_ERD.mwb and Database ERD slide on powerpoint</t>
+  </si>
+  <si>
+    <t>6[IT], [3,5], [2]</t>
+  </si>
+  <si>
+    <t>GPTMS_ERD.mwb and Sprint2.pptx</t>
   </si>
 </sst>
 </file>
@@ -291,23 +302,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,6 +333,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -339,24 +364,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,232 +660,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75390625" customWidth="1"/>
-    <col min="2" max="2" width="17.5078125" customWidth="1"/>
-    <col min="3" max="3" width="13.6875" customWidth="1"/>
-    <col min="4" max="4" width="27.49609375" customWidth="1"/>
-    <col min="5" max="5" width="42.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.53515625" customWidth="1"/>
-    <col min="7" max="7" width="17.26171875" customWidth="1"/>
-    <col min="8" max="8" width="27.9921875" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="42.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="17.296875" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="8">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" ht="40.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="11">
+      <c r="F4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -892,11 +916,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -906,223 +925,351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75390625" customWidth="1"/>
-    <col min="2" max="2" width="17.5078125" customWidth="1"/>
-    <col min="3" max="3" width="8.5078125" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-    </row>
-    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="8">
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/efforts/Dustin Bramos.xlsx
+++ b/docs/efforts/Dustin Bramos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - oakland.edu\CSI 4999 - Senior Capstone Project\Project\GPTMS\docs\efforts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{AFE7BE32-866E-C949-94F1-81AD2D7E19C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14462377-9CE0-4F96-B7D8-4C379EEDBBD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9AD9B4-B6FD-4E1F-9D46-38339D954746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2652" yWindow="4248" windowWidth="18432" windowHeight="9768" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>GPTMS_ERD.mwb and Sprint2.pptx</t>
+  </si>
+  <si>
+    <t>Wrote some controllers and helped re plan the structure of the project.</t>
+  </si>
+  <si>
+    <t>profileQueries.php and profileController.php</t>
+  </si>
+  <si>
+    <t>The code inside the api/User folder.</t>
+  </si>
+  <si>
+    <t>6[CS, IT], 5</t>
   </si>
 </sst>
 </file>
@@ -302,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -327,18 +339,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,18 +373,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -671,44 +680,44 @@
     <col min="3" max="3" width="13.69921875" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" customWidth="1"/>
     <col min="7" max="7" width="17.296875" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -729,10 +738,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="8">
         <v>16</v>
       </c>
@@ -753,14 +762,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12">
+      <c r="B5" s="16"/>
+      <c r="C5" s="10">
         <v>20</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -776,133 +785,140 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="11">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -916,6 +932,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -925,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -939,47 +960,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1088,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">

--- a/docs/efforts/Dustin Bramos.xlsx
+++ b/docs/efforts/Dustin Bramos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9AD9B4-B6FD-4E1F-9D46-38339D954746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D6E3AC-A1C3-4EFA-9385-62DDEDC86A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>6[CS, IT], 5</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 5, 6[CS]</t>
+  </si>
+  <si>
+    <t>Created the History page's query and helped with controllers. Created a MySQL script to completely fill the database with test data. Made a small change to the ERD. Collaborated on the powerpoint presentation.</t>
+  </si>
+  <si>
+    <t>userQueries.php, userControllers.php, Sprint4.pptx, Test Data Insertion Script.sql and GPTMS_ERD.mwb</t>
+  </si>
+  <si>
+    <t>The query inside userQueries.php, the script inside the test insertion script, the Sprint 4 powerpoint, and the database ERD.</t>
   </si>
 </sst>
 </file>
@@ -314,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +357,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -355,24 +388,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -686,38 +701,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -738,10 +753,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="8">
         <v>16</v>
       </c>
@@ -762,10 +777,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="10">
         <v>20</v>
       </c>
@@ -786,10 +801,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="11">
         <v>22</v>
       </c>
@@ -809,23 +824,35 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="9"/>
@@ -834,10 +861,10 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="9"/>
@@ -846,10 +873,10 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="9"/>
@@ -858,10 +885,10 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
@@ -870,10 +897,10 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="9"/>
@@ -882,10 +909,10 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="9"/>
@@ -894,10 +921,10 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9"/>
@@ -906,10 +933,10 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="9"/>
@@ -919,6 +946,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -932,11 +964,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -946,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -960,47 +987,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1126,22 +1153,22 @@
         <v>27</v>
       </c>
       <c r="C8" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>

--- a/docs/efforts/Dustin Bramos.xlsx
+++ b/docs/efforts/Dustin Bramos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D6E3AC-A1C3-4EFA-9385-62DDEDC86A32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA6CE1-F761-4F9A-95C5-57012FFCB8BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>The query inside userQueries.php, the script inside the test insertion script, the Sprint 4 powerpoint, and the database ERD.</t>
+  </si>
+  <si>
+    <t>Made the querey to pull hole data for score cards and to start a game. Created the controller logic for the hole data, and laid down the framework for the game-management controller logic. Also helped with some of the re-working/design of the database to make it more relation oriented.</t>
+  </si>
+  <si>
+    <t>CourseMngmntQueries.php, GameMngmntQueries.php, CourseMngmntController.php, GameMngmntController.php, GPTMS ERD.mwb</t>
+  </si>
+  <si>
+    <t>holeSelect function in coursemanagement controller and query files. And the queries inside of the game queries file, along with the basic framework of the game controller file.</t>
   </si>
 </sst>
 </file>
@@ -326,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -363,6 +372,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,18 +400,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -695,44 +707,44 @@
     <col min="3" max="3" width="13.69921875" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
-    <col min="6" max="6" width="19.796875" customWidth="1"/>
-    <col min="7" max="7" width="17.296875" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -753,10 +765,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="8">
         <v>16</v>
       </c>
@@ -777,10 +789,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="10">
         <v>20</v>
       </c>
@@ -801,10 +813,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="11">
         <v>22</v>
       </c>
@@ -825,10 +837,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="12">
         <v>35</v>
       </c>
@@ -848,23 +860,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="11">
+        <v>36</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="9"/>
@@ -873,10 +897,10 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="9"/>
@@ -885,10 +909,10 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
@@ -897,10 +921,10 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="9"/>
@@ -909,10 +933,10 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="9"/>
@@ -921,10 +945,10 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9"/>
@@ -933,10 +957,10 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="9"/>
@@ -946,11 +970,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -964,6 +983,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -973,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -987,47 +1011,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1182,22 +1206,22 @@
         <v>27</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>

--- a/docs/efforts/Dustin Bramos.xlsx
+++ b/docs/efforts/Dustin Bramos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA6CE1-F761-4F9A-95C5-57012FFCB8BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF70E319-6A37-4629-B4CE-2992D6DDAFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -372,6 +372,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -382,24 +403,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -713,38 +716,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -765,10 +768,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="8">
         <v>16</v>
       </c>
@@ -789,10 +792,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="10">
         <v>20</v>
       </c>
@@ -812,11 +815,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="11">
         <v>22</v>
       </c>
@@ -836,11 +839,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="12">
         <v>35</v>
       </c>
@@ -861,10 +864,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="11">
         <v>36</v>
       </c>
@@ -885,22 +888,26 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14">
+        <v>32</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="9"/>
@@ -909,10 +916,10 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
@@ -921,10 +928,10 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="9"/>
@@ -933,10 +940,10 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="9"/>
@@ -945,10 +952,10 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9"/>
@@ -957,10 +964,10 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="9"/>
@@ -970,6 +977,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -983,11 +995,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -997,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1011,47 +1018,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">

--- a/docs/efforts/Dustin Bramos.xlsx
+++ b/docs/efforts/Dustin Bramos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF70E319-6A37-4629-B4CE-2992D6DDAFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C2561-7390-449A-8211-4A334E248A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>holeSelect function in coursemanagement controller and query files. And the queries inside of the game queries file, along with the basic framework of the game controller file.</t>
+  </si>
+  <si>
+    <t>Made some fixes to the back end of the game page, along with erd and database changes.</t>
+  </si>
+  <si>
+    <t>GameMngmntQueries.php, GameMngmntController.php, Database_Data_Insertion_Script.sql, Database_Creation_Script.sql, GPTMS ERD.mwb</t>
+  </si>
+  <si>
+    <t>Hole and tee data for the tables in the data insertion script and startRound function in the game management controller.</t>
+  </si>
+  <si>
+    <t>Connecting the front end with the back end to create a more functional application.</t>
   </si>
 </sst>
 </file>
@@ -335,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -699,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -716,38 +731,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -768,10 +783,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="8">
         <v>16</v>
       </c>
@@ -792,10 +807,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="10">
         <v>20</v>
       </c>
@@ -816,10 +831,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="11">
         <v>22</v>
       </c>
@@ -840,10 +855,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="12">
         <v>35</v>
       </c>
@@ -864,10 +879,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="11">
         <v>36</v>
       </c>
@@ -887,39 +902,59 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="14">
         <v>32</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="E9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="11">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
@@ -928,10 +963,10 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="9"/>
@@ -940,10 +975,10 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="9"/>
@@ -952,10 +987,10 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9"/>
@@ -964,10 +999,10 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="9"/>
@@ -1004,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1018,47 +1053,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1242,22 +1277,22 @@
         <v>27</v>
       </c>
       <c r="C10" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -1271,13 +1306,13 @@
         <v>27</v>
       </c>
       <c r="C11" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
         <v>0</v>
@@ -1286,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I11" s="5">
         <v>0</v>

--- a/docs/efforts/Dustin Bramos.xlsx
+++ b/docs/efforts/Dustin Bramos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C2561-7390-449A-8211-4A334E248A55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEC040C-708F-4C77-B0A2-DD0DCC342175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Connecting the front end with the back end to create a more functional application.</t>
+  </si>
+  <si>
+    <t>Worked on queries and controllers for updating course information</t>
   </si>
 </sst>
 </file>
@@ -347,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,6 +396,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,18 +424,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,15 +720,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+    <sheetView topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="42.5" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
@@ -730,39 +736,39 @@
     <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="40.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -782,11 +788,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="8">
         <v>16</v>
       </c>
@@ -806,11 +812,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="10">
         <v>20</v>
       </c>
@@ -830,11 +836,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="11">
         <v>22</v>
       </c>
@@ -854,11 +860,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="12">
         <v>35</v>
       </c>
@@ -878,11 +884,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="11">
         <v>36</v>
       </c>
@@ -902,11 +908,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="14">
         <v>32</v>
       </c>
@@ -926,11 +932,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="11">
         <v>30</v>
       </c>
@@ -950,23 +956,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="16">
+        <v>31</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="9"/>
@@ -974,11 +992,11 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="9"/>
@@ -986,11 +1004,11 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9"/>
@@ -998,11 +1016,11 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="9"/>
@@ -1012,11 +1030,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -1030,6 +1043,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1040,62 +1058,62 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+    </row>
+    <row r="2" spans="1:9" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1124,7 +1142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1153,7 +1171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1182,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1211,7 +1229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1240,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1269,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -1298,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -1327,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -1335,13 +1353,13 @@
         <v>27</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
@@ -1350,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
